--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/MPC/garbled-points/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312035E-42F0-4142-8BFA-FD195DC03573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93189F34-4118-FF40-A546-7091A2B70876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47760" yWindow="-12860" windowWidth="32920" windowHeight="16460" activeTab="1" xr2:uid="{87A73EC5-28D1-2041-BE28-7F08E3E002FC}"/>
+    <workbookView xWindow="-28540" yWindow="-11900" windowWidth="27220" windowHeight="16460" xr2:uid="{87A73EC5-28D1-2041-BE28-7F08E3E002FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Outer Product" sheetId="1" r:id="rId1"/>
-    <sheet name="Matrix Product" sheetId="2" r:id="rId2"/>
+    <sheet name="Small Domain OP" sheetId="3" r:id="rId1"/>
+    <sheet name="Outer Product" sheetId="1" r:id="rId2"/>
+    <sheet name="Matrix Product" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>128 bit vectors</t>
   </si>
@@ -78,6 +79,18 @@
   <si>
     <t>k=3</t>
   </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>Unadjusted</t>
+  </si>
 </sst>
 </file>
 
@@ -112,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +146,925 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Small Domain OP'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Small Domain OP'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE8C-0341-BEC7-6A600018A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Small Domain OP'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Small Domain OP'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE8C-0341-BEC7-6A600018A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2105642368"/>
+        <c:axId val="2105678432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2105642368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Outer Product Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105678432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105678432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Communication (Bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105642368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Small Domain OP'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Small Domain OP'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6027500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0925199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8196800000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2023600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2392499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8414299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17633399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21571899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23881199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30286800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22B7-284E-924F-180BEA090394}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Small Domain OP'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Small Domain OP'!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.01344E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.10628E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1882399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9415000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4623000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1993099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0813600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12773799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25617999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74109800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22B7-284E-924F-180BEA090394}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2094004672"/>
+        <c:axId val="2093975376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094004672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Outer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Product Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093975376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2093975376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generator Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094004672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -477,7 +1410,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -823,7 +1756,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1169,7 +2102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1675,8 +2608,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1784,6 +2797,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1794,6 +2812,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1825,6 +2848,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2179,7 +3205,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2287,6 +3313,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2297,6 +3328,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2328,6 +3364,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3687,7 +4726,1090 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C1419D-B200-3F41-9348-9327BD53E281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED55EA84-A5F4-D848-B31A-0595ED49A162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3766,7 +5888,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4143,6 +6265,438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B946415-4119-0C44-A36C-81A72649EF29}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>2*A3*A3*16</f>
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <f>(6*A3-4)*16</f>
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>G3/10</f>
+        <v>3.6027500000000002E-4</v>
+      </c>
+      <c r="F3">
+        <f>H3/10</f>
+        <v>2.01344E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.60275E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.201344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B14" si="0">2*A4*A4*16</f>
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C14" si="1">(6*A4-4)*16</f>
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <f>D3+1</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E14" si="2">G4/10</f>
+        <v>1.0925199999999999E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="3">H4/10</f>
+        <v>2.10628E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.109252</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.21062800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A15" si="4">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D14" si="5">D4+1</f>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>5.8196800000000007E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>3.1882399999999998E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.58196800000000004</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.318824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>5.2023600000000003E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>2.9415000000000004E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.52023600000000003</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.29415000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>6.2392499999999997E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3.4623000000000001E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.62392499999999995</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.34622999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>9.8414299999999996E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>4.1993099999999998E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.98414299999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.419931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1568</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>608</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.17633399999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>6.0813600000000002E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.7633399999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.60813600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.21571899999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.12773799999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.1571899999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.27738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2592</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.23881199999999997</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.25617999999999996</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.3881199999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.5617999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>896</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.30286800000000003</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.74109800000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.02868</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.4109800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3872</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>992</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.40553400000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1.5355000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.0553400000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15.355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>4608</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>1088</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.43367500000000003</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>4.3222100000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.3367500000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43.222099999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4009BF78-7DF6-8442-81BA-D4E812D05938}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -4315,11 +6869,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78950AE-ADE4-EE41-A864-52CA4341711F}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/MPC/garbled-points/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93189F34-4118-FF40-A546-7091A2B70876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52221E85-6256-A540-AFB4-C8F7FEB04928}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28540" yWindow="-11900" windowWidth="27220" windowHeight="16460" xr2:uid="{87A73EC5-28D1-2041-BE28-7F08E3E002FC}"/>
+    <workbookView xWindow="-29040" yWindow="-13800" windowWidth="27220" windowHeight="16420" xr2:uid="{87A73EC5-28D1-2041-BE28-7F08E3E002FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Small Domain OP" sheetId="3" r:id="rId1"/>
+    <sheet name="Small Domain OP" sheetId="4" r:id="rId1"/>
     <sheet name="Outer Product" sheetId="1" r:id="rId2"/>
     <sheet name="Matrix Product" sheetId="2" r:id="rId3"/>
+    <sheet name="Integer Multiplication" sheetId="6" r:id="rId4"/>
+    <sheet name="GF256 Mul" sheetId="8" r:id="rId5"/>
+    <sheet name="AES" sheetId="7" r:id="rId6"/>
+    <sheet name="Exponent" sheetId="9" r:id="rId7"/>
+    <sheet name="Mod p" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>128 bit vectors</t>
   </si>
   <si>
     <t>repetitions</t>
-  </si>
-  <si>
-    <t>Naïve</t>
   </si>
   <si>
     <t>k=5</t>
@@ -91,6 +93,36 @@
   <si>
     <t>Unadjusted</t>
   </si>
+  <si>
+    <t>wall clock time</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>32 bit numbers</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Communication KB</t>
+  </si>
+  <si>
+    <t>Communication B</t>
+  </si>
+  <si>
+    <t>Ours k = 4</t>
+  </si>
+  <si>
+    <t>Ours k = 8</t>
+  </si>
+  <si>
+    <t>p = 65521</t>
+  </si>
+  <si>
+    <t>Wall Clock Time ms</t>
+  </si>
 </sst>
 </file>
 
@@ -125,9 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,7 +207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naïve</c:v>
+                  <c:v>Standard</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -194,10 +227,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Small Domain OP'!$B$3:$B$12</c:f>
+              <c:f>'Small Domain OP'!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -225,16 +258,13 @@
                 <c:pt idx="8">
                   <c:v>2592</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3200</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE8C-0341-BEC7-6A600018A065}"/>
+              <c16:uniqueId val="{00000000-9473-0A49-AD45-65040B2ECAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -266,10 +296,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Small Domain OP'!$C$3:$C$12</c:f>
+              <c:f>'Small Domain OP'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -297,16 +327,13 @@
                 <c:pt idx="8">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>896</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE8C-0341-BEC7-6A600018A065}"/>
+              <c16:uniqueId val="{00000001-9473-0A49-AD45-65040B2ECAFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -599,6 +626,317 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3952-514E-BC2B-2ED3C898ABF3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>AES!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AES!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.83333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3952-514E-BC2B-2ED3C898ABF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="790171792"/>
+        <c:axId val="790157024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="790171792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790157024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790157024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wall Clock Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790171792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -628,7 +966,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naïve</c:v>
+                  <c:v>Standard</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -648,39 +986,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Small Domain OP'!$E$3:$E$12</c:f>
+              <c:f>'Small Domain OP'!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.6027500000000002E-4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0925199999999999E-2</c:v>
+                  <c:v>13.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8196800000000007E-2</c:v>
+                  <c:v>28.839999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2023600000000003E-2</c:v>
+                  <c:v>50.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2392499999999997E-2</c:v>
+                  <c:v>72.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8414299999999996E-2</c:v>
+                  <c:v>107.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17633399999999999</c:v>
+                  <c:v>142.64000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21571899999999999</c:v>
+                  <c:v>181.72000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23881199999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.30286800000000003</c:v>
+                  <c:v>221.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +1023,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22B7-284E-924F-180BEA090394}"/>
+              <c16:uniqueId val="{00000000-B8DD-A54B-8B0E-A7E1E8A3F375}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -720,39 +1055,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Small Domain OP'!$F$3:$F$12</c:f>
+              <c:f>'Small Domain OP'!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.01344E-2</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.10628E-2</c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1882399999999998E-2</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9415000000000004E-2</c:v>
+                  <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4623000000000001E-2</c:v>
+                  <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1993099999999998E-2</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0813600000000002E-2</c:v>
+                  <c:v>63.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12773799999999999</c:v>
+                  <c:v>142.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25617999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.74109800000000003</c:v>
+                  <c:v>251.64000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,7 +1092,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22B7-284E-924F-180BEA090394}"/>
+              <c16:uniqueId val="{00000001-B8DD-A54B-8B0E-A7E1E8A3F375}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -790,7 +1122,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -801,13 +1133,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Outer</a:t>
+                  <a:t>Outer Product Size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Product Size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -824,7 +1151,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -858,7 +1185,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -905,7 +1232,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -916,13 +1243,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Generator Time</a:t>
+                  <a:t>Wall Clock Time (</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -939,7 +1269,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -968,7 +1298,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -983,7 +1313,7 @@
         <c:crossAx val="2094004672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1008,7 +1338,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1047,7 +1377,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1400">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1089,14 +1419,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:pattFill prst="dkUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1110,14 +1438,11 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:pattFill prst="ltDnDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -1137,7 +1462,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Naïve</c:v>
+                  <c:v>Standard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>k=3</c:v>
@@ -1193,6 +1518,1966 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5411-824F-959D-625A5ABCE2A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="790171792"/>
+        <c:axId val="790157024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="790171792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790157024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790157024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Communication (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790171792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0FAC-114B-9C21-18EC731C9645}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Outer Product'!$B$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k=3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>k=6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>k=7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Outer Product'!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.825000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.350000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FAC-114B-9C21-18EC731C9645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="790171792"/>
+        <c:axId val="790157024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="790171792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790157024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790157024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wall Clock Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790171792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3577-4C4E-94EF-F1362BC33A0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Matrix Product'!$B$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k=3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>k=6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>k=7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Matrix Product'!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.1640625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.796875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.828125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.3515625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3577-4C4E-94EF-F1362BC33A0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="790171792"/>
+        <c:axId val="790157024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="790171792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790157024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790157024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Communication (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790171792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-577A-8C4D-828F-B05BE4728707}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Matrix Product'!$B$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k=3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k=5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>k=6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>k=7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>k=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Matrix Product'!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.4150000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9742000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-577A-8C4D-828F-B05BE4728707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="790171792"/>
+        <c:axId val="790157024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="790171792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790157024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790157024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wall Clock Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790171792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CE48-1145-8C84-B89A784834F8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Integer Multiplication'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Integer Multiplication'!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE48-1145-8C84-B89A784834F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="790171792"/>
+        <c:axId val="790157024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="790171792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790157024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790157024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Communication (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790171792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AB68-C843-939A-48BA48AF8BFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Integer Multiplication'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Integer Multiplication'!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.2040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB68-C843-939A-48BA48AF8BFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="790171792"/>
+        <c:axId val="790157024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="790171792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790157024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790157024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wall Clock Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790171792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F9AD-914A-AA7C-1653BC7C12BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>AES!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AES!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9AD-914A-AA7C-1653BC7C12BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1410,1045 +3695,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:pattFill prst="dkUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltDnDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0FAC-114B-9C21-18EC731C9645}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Outer Product'!$B$4:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Naïve</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>k=3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>k=4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>k=5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>k=6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>k=7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>k=8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Outer Product'!$B$7:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>51.424999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.675000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.849999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.825000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.350000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FAC-114B-9C21-18EC731C9645}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="790171792"/>
-        <c:axId val="790157024"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="790171792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790157024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="790157024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Wall Clock Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790171792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:pattFill prst="dkUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltDnDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3577-4C4E-94EF-F1362BC33A0B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Matrix Product'!$B$4:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Naïve</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>k=3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>k=4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>k=5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>k=6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>k=7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>k=8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Matrix Product'!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.1640625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.796875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.828125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.3515625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3577-4C4E-94EF-F1362BC33A0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="790171792"/>
-        <c:axId val="790157024"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="790171792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790157024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="790157024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Communication (MB)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790171792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:pattFill prst="dkUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltDnDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-577A-8C4D-828F-B05BE4728707}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Matrix Product'!$B$4:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Naïve</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>k=3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>k=4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>k=5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>k=6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>k=7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>k=8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Matrix Product'!$B$7:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6.4150000000000009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.506</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4159999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2929999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7521</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9742000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-577A-8C4D-828F-B05BE4728707}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="790171792"/>
-        <c:axId val="790157024"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="790171792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790157024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="790157024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Wall Clock Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="790171792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2688,6 +3975,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3204,8 +4611,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3313,11 +4720,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3328,11 +4730,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3364,9 +4761,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3720,8 +5114,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3829,6 +5223,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3839,6 +5238,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3870,6 +5274,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4223,7 +5630,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4726,7 +6133,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5229,7 +6636,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5752,11 +9171,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C1419D-B200-3F41-9348-9327BD53E281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335E337D-37B4-F24F-B4E7-87FACCFA0E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5772,27 +9193,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED55EA84-A5F4-D848-B31A-0595ED49A162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28487D2B-51CA-B249-8957-AA3832A078C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5813,16 +9236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5849,16 +9272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5899,7 +9322,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -5936,8 +9359,8 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -5947,6 +9370,168 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7748FC3E-5F9F-BE4F-8B52-6785B7808106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0394AF38-76DB-BD4F-9E1C-9E16E457CABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1160B9CC-92B5-164D-AE98-1323F424DD0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EF39FD-368E-FF40-A670-513B0110A57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8C3E52-0914-664A-BF8A-5B1447A0C89D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6265,50 +9850,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B946415-4119-0C44-A36C-81A72649EF29}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D90262-05B1-8A49-8DC2-694F0AA24DC1}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6324,21 +9912,21 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>G3/10</f>
-        <v>3.6027500000000002E-4</v>
+        <f>G3/50000*1000*1000</f>
+        <v>5</v>
       </c>
       <c r="F3">
-        <f>H3/10</f>
-        <v>2.01344E-2</v>
+        <f>H3/50000*1000*1000</f>
+        <v>33.6</v>
       </c>
       <c r="G3" s="1">
-        <v>3.60275E-3</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="1">
-        <v>0.201344</v>
+        <v>1.68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -6356,23 +9944,23 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E14" si="2">G4/10</f>
-        <v>1.0925199999999999E-2</v>
+        <f t="shared" ref="E4:F11" si="2">G4/50000*1000*1000</f>
+        <v>13.56</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F14" si="3">H4/10</f>
-        <v>2.10628E-2</v>
+        <f t="shared" si="2"/>
+        <v>32.799999999999997</v>
       </c>
       <c r="G4" s="1">
-        <v>0.109252</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="H4" s="1">
-        <v>0.21062800000000001</v>
+        <v>1.64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A15" si="4">A4+1</f>
+        <f t="shared" ref="A5:A14" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
@@ -6384,27 +9972,27 @@
         <v>224</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D14" si="5">D4+1</f>
+        <f t="shared" ref="D5:D14" si="4">D4+1</f>
         <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>5.8196800000000007E-2</v>
+        <v>28.839999999999996</v>
       </c>
       <c r="F5">
+        <f t="shared" si="2"/>
+        <v>32.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <f t="shared" si="3"/>
-        <v>3.1882399999999998E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.58196800000000004</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.318824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -6416,27 +10004,27 @@
         <v>320</v>
       </c>
       <c r="D6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>5.2023600000000003E-2</v>
+        <v>50.6</v>
       </c>
       <c r="F6">
+        <f t="shared" si="2"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <f t="shared" si="3"/>
-        <v>2.9415000000000004E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.52023600000000003</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.29415000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -6448,27 +10036,27 @@
         <v>416</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>6.2392499999999997E-2</v>
+        <v>72.199999999999989</v>
       </c>
       <c r="F7">
+        <f t="shared" si="2"/>
+        <v>41.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <f t="shared" si="3"/>
-        <v>3.4623000000000001E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.62392499999999995</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.34622999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -6480,27 +10068,31 @@
         <v>512</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>9.8414299999999996E-2</v>
+        <v>107.92</v>
       </c>
       <c r="F8">
+        <f t="shared" si="2"/>
+        <v>48.4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="I8">
+        <f>E8/F8</f>
+        <v>2.2297520661157026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <f t="shared" si="3"/>
-        <v>4.1993099999999998E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.98414299999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.419931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -6512,27 +10104,31 @@
         <v>608</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>0.17633399999999999</v>
+        <v>142.64000000000001</v>
       </c>
       <c r="F9">
+        <f t="shared" si="2"/>
+        <v>63.38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.1319999999999997</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.169</v>
+      </c>
+      <c r="I9">
+        <f>E9/F9</f>
+        <v>2.2505522246765541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <f t="shared" si="3"/>
-        <v>6.0813600000000002E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.7633399999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.60813600000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -6544,27 +10140,27 @@
         <v>704</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.21571899999999999</v>
+        <v>181.72000000000003</v>
       </c>
       <c r="F10">
+        <f t="shared" si="2"/>
+        <v>142.46</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9.0860000000000003</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7.1230000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <f t="shared" si="3"/>
-        <v>0.12773799999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.1571899999999999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.27738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -6576,27 +10172,27 @@
         <v>800</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.23881199999999997</v>
+        <v>221.92</v>
       </c>
       <c r="F11">
+        <f t="shared" si="2"/>
+        <v>251.64000000000004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11.096</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12.582000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <f t="shared" si="3"/>
-        <v>0.25617999999999996</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.3881199999999998</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.5617999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -6608,27 +10204,23 @@
         <v>896</v>
       </c>
       <c r="D12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:F14" si="5">G12/50000*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.30286800000000003</v>
-      </c>
-      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
         <f t="shared" si="3"/>
-        <v>0.74109800000000003</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3.02868</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7.4109800000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -6640,27 +10232,23 @@
         <v>992</v>
       </c>
       <c r="D13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0.40553400000000001</v>
+        <v>0</v>
       </c>
       <c r="F13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <f t="shared" si="3"/>
-        <v>1.5355000000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.0553400000000002</v>
-      </c>
-      <c r="H13" s="1">
-        <v>15.355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -6672,23 +10260,19 @@
         <v>1088</v>
       </c>
       <c r="D14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.43367500000000003</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>4.3222100000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4.3367500000000003</v>
-      </c>
-      <c r="H14" s="1">
-        <v>43.222099999999998</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6698,56 +10282,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4009BF78-7DF6-8442-81BA-D4E812D05938}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>C5</f>
+        <v>0.747</v>
+      </c>
+      <c r="L4">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
       </c>
       <c r="B5">
         <v>2.0569999999999999</v>
@@ -6770,10 +10373,20 @@
       <c r="H5">
         <v>0.65400000000000003</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>D5</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="L5">
+        <v>2.0569999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>20971520</v>
@@ -6796,10 +10409,20 @@
       <c r="H6">
         <v>2908160</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>E5</f>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L6">
+        <v>2.0569999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>B5/$B$2*1000</f>
@@ -6829,10 +10452,20 @@
         <f t="shared" si="1"/>
         <v>16.350000000000001</v>
       </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>F5</f>
+        <v>0.504</v>
+      </c>
+      <c r="L7">
+        <v>2.0569999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <f>B6/$B$2/1024</f>
@@ -6861,6 +10494,88 @@
       <c r="H8">
         <f t="shared" si="3"/>
         <v>71</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>G5</f>
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L8">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f>H5</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="L9">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>$B$5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>$B$5/C5</f>
+        <v>2.7536813922356091</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:H10" si="4">$B$5/D5</f>
+        <v>3.4629629629629632</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>4.017578125</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>4.0813492063492065</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>3.7197106690777573</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>3.1452599388379201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>$B$8/B8</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:G11" si="5">$B$8/C8</f>
+        <v>2.8875572788156503</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>3.8208955223880596</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>4.6387315968289924</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>5.4108322324966975</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>6.182641509433962</v>
+      </c>
+      <c r="H11">
+        <f>$B$8/H8</f>
+        <v>7.211267605633803</v>
       </c>
     </row>
   </sheetData>
@@ -6871,10 +10586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78950AE-ADE4-EE41-A864-52CA4341711F}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6884,7 +10599,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6897,30 +10612,30 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>64.150000000000006</v>
@@ -6946,7 +10661,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>671088640</v>
@@ -6972,7 +10687,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>B5/$B$2</f>
@@ -7005,7 +10720,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <f>B6/$B$2/1024/1024</f>
@@ -7034,10 +10749,1005 @@
       <c r="H8">
         <f t="shared" si="1"/>
         <v>8.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>$B$5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>$B$5/C5</f>
+        <v>2.8896396396396398</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:H10" si="2">$B$5/D5</f>
+        <v>4.259628154050465</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4.5303672316384187</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>4.9613302397525141</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3.661320700873238</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2.1568825230314035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>$B$8/B8</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:G11" si="3">$B$8/C8</f>
+        <v>2.8875572788156503</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>3.8208955223880596</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>4.6387315968289924</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>5.4108322324966975</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>6.182641509433962</v>
+      </c>
+      <c r="H11">
+        <f>$B$8/H8</f>
+        <v>7.211267605633803</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DD32F2-2394-074E-AFDE-BCCFA1853F20}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="C5">
+        <v>2.327</v>
+      </c>
+      <c r="E5">
+        <f>B5/C5</f>
+        <v>1.3768801031370865</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>32768000</v>
+      </c>
+      <c r="C6">
+        <v>21760000</v>
+      </c>
+      <c r="E6">
+        <f>B6/C6</f>
+        <v>1.5058823529411764</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>E5</f>
+        <v>1.3768801031370865</v>
+      </c>
+      <c r="L6">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>B5/$B$2*1000</f>
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="C7">
+        <f>C5/$B$2*1000</f>
+        <v>2.327</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>C5</f>
+        <v>2.327</v>
+      </c>
+      <c r="L7">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B6/$B$2/1024</f>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <f>C6/$B$2/1024</f>
+        <v>21.25</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="C14">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="E14">
+        <f>B14/C14</f>
+        <v>1.4981036662452591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>65536000</v>
+      </c>
+      <c r="C15">
+        <v>42240000</v>
+      </c>
+      <c r="E15">
+        <f>B15/C15</f>
+        <v>1.5515151515151515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <f>B14/$B$11*1000</f>
+        <v>11.85</v>
+      </c>
+      <c r="C16">
+        <f>C14/$B$11*1000</f>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f>B15/$B$11</f>
+        <v>131072</v>
+      </c>
+      <c r="C17">
+        <f>C15/$B$11*1000</f>
+        <v>84480000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B649C66-D5C2-114C-A563-4FCF4850C639}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4.37</v>
+      </c>
+      <c r="C5">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="D5">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="E5">
+        <f>B5/C5</f>
+        <v>1.8200749687630156</v>
+      </c>
+      <c r="F5">
+        <f>B5/D5</f>
+        <v>1.3017575215966637</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>D5</f>
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="L5">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>46080000</v>
+      </c>
+      <c r="C6">
+        <v>26880000</v>
+      </c>
+      <c r="D6">
+        <v>21120000</v>
+      </c>
+      <c r="E6">
+        <f>B6/C6</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="F6">
+        <f>B6/D6</f>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>E5</f>
+        <v>1.8200749687630156</v>
+      </c>
+      <c r="L6">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>B5/$B$2*1000*1000</f>
+        <v>145.66666666666666</v>
+      </c>
+      <c r="C7">
+        <f>C5/$B$2*1000*1000</f>
+        <v>80.033333333333331</v>
+      </c>
+      <c r="D7">
+        <f>D5/$B$2*1000*1000</f>
+        <v>111.90000000000002</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>C5</f>
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="L7">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f>B6/$B$2</f>
+        <v>1536</v>
+      </c>
+      <c r="C8">
+        <f>C6/$B$2</f>
+        <v>896</v>
+      </c>
+      <c r="D8">
+        <f>D6/$B$2</f>
+        <v>704</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1263C3BA-7B53-CC4B-864B-2F821B9FBAEC}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="C5">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E5">
+        <f>B5/C5</f>
+        <v>0.97889763779527572</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>30720000</v>
+      </c>
+      <c r="C6">
+        <v>27870000</v>
+      </c>
+      <c r="E6">
+        <f>B6/C6</f>
+        <v>1.1022604951560817</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>E5</f>
+        <v>0.97889763779527572</v>
+      </c>
+      <c r="L6">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>B5/$B$2*1000*1000</f>
+        <v>103.6</v>
+      </c>
+      <c r="C7">
+        <f>C5/$B$2*1000*1000</f>
+        <v>105.83333333333331</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>C5</f>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="L7">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f>B6/$B$2</f>
+        <v>1024</v>
+      </c>
+      <c r="C8">
+        <f>C6/$B$2</f>
+        <v>929</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB13582-31A7-544F-9987-A908473D44BC}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10.073</v>
+      </c>
+      <c r="C5">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="E5">
+        <f>B5/C5</f>
+        <v>9.5207939508506616</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>104875600</v>
+      </c>
+      <c r="C6">
+        <v>8899600</v>
+      </c>
+      <c r="E6">
+        <f>B6/C6</f>
+        <v>11.784304912580341</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>E5</f>
+        <v>9.5207939508506616</v>
+      </c>
+      <c r="L6">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>B5/$B$2*1000</f>
+        <v>100.73</v>
+      </c>
+      <c r="C7">
+        <f>C5/$B$2*1000</f>
+        <v>10.58</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>C5</f>
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="L7">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f>B6/$B$2/1024</f>
+        <v>1024.17578125</v>
+      </c>
+      <c r="C8">
+        <f>C6/$B$2/1024</f>
+        <v>86.91015625</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDAE1AE-088A-A44E-9378-5CAFABC6CECB}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3.75</v>
+      </c>
+      <c r="C5">
+        <v>1.08</v>
+      </c>
+      <c r="E5">
+        <f>B5/C5</f>
+        <v>3.4722222222222219</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>35904000</v>
+      </c>
+      <c r="C6">
+        <v>10784000</v>
+      </c>
+      <c r="D6">
+        <v>10784000</v>
+      </c>
+      <c r="E6">
+        <f>B6/C6</f>
+        <v>3.3293768545994067</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>E5</f>
+        <v>3.4722222222222219</v>
+      </c>
+      <c r="L6">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f>B5/$B$2*1000</f>
+        <v>3.75</v>
+      </c>
+      <c r="C7">
+        <f>C5/$B$2*1000</f>
+        <v>1.08</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>C5</f>
+        <v>1.08</v>
+      </c>
+      <c r="L7">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <f>B6/$B$2/1024</f>
+        <v>35.0625</v>
+      </c>
+      <c r="C8">
+        <f>C6/$B$2/1024</f>
+        <v>10.53125</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>